--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v3.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v3.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Booking ID</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Period: {meta:sd} TO {meta:ed}</t>
+  </si>
+  <si>
+    <t>{meta:r_total}</t>
   </si>
 </sst>
 </file>
@@ -517,21 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -640,6 +628,19 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -713,16 +714,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -746,24 +747,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,104 +765,116 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1208,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1384,28 +1385,28 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="22" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="41" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="28" t="s">
@@ -1424,35 +1425,35 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="2:10" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="2:10" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
@@ -1473,171 +1474,175 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="36">
+      <c r="C18" s="58"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="72">
         <v>0.3</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="72">
         <v>0.3</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="72">
         <v>0.3</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="72">
         <v>0.3</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="2:10" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="34" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="37"/>
+      <c r="I19" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="2:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="46" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="2:10" ht="11" x14ac:dyDescent="0.2">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="74" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="2:10" ht="11" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" spans="2:10" ht="11" x14ac:dyDescent="0.2">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="52" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="55" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B14:J14"/>
@@ -1650,11 +1655,9 @@
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="D23:J23"/>
     <mergeCell ref="D24:J24"/>
-    <mergeCell ref="E20:H20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="D25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
